--- a/biology/Botanique/Lecanora/Lecanora.xlsx
+++ b/biology/Botanique/Lecanora/Lecanora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lecanora (du grec lekanon, « petit plat », allusion à la forme de ses apothécies[1]) est un genre de lichens de la famille des Lecanoraceae.
-C'est un lichen dit « disco-lichen », « placodioide » ou « placodiomorphe » : sa surface externe est plus ou moins striée radialement et sa marge présente des lobes[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lecanora (du grec lekanon, « petit plat », allusion à la forme de ses apothécies) est un genre de lichens de la famille des Lecanoraceae.
+C'est un lichen dit « disco-lichen », « placodioide » ou « placodiomorphe » : sa surface externe est plus ou moins striée radialement et sa marge présente des lobes.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Usage alimentaire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une hypothèse est que la manne du désert pourrait avoir été un lichen de cette famille (Lecanora esculenta par exemple)[3], dont certains qui s'épanouissent après les rares pluies, avant de se détacher de leur support pour former des globules plus ou moins mamelonnés de la taille d'un pois chiche[4]. De tels lichens servent ou servaient encore il y a peu de nourriture aux animaux et humains (en Algérie, au Turkestan ou en Égypte ;  par exemple broyé par les Ouled-Naïls avec de l'orge pour faire un pain grossier) dans les déserts[4]. Le général Yusuf a utilisé ces lichens pour nourrir des chevaux d'abord avec de l'orge puis seuls, apparemment sans problèmes pour les chevaux[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une hypothèse est que la manne du désert pourrait avoir été un lichen de cette famille (Lecanora esculenta par exemple), dont certains qui s'épanouissent après les rares pluies, avant de se détacher de leur support pour former des globules plus ou moins mamelonnés de la taille d'un pois chiche. De tels lichens servent ou servaient encore il y a peu de nourriture aux animaux et humains (en Algérie, au Turkestan ou en Égypte ;  par exemple broyé par les Ouled-Naïls avec de l'orge pour faire un pain grossier) dans les déserts. Le général Yusuf a utilisé ces lichens pour nourrir des chevaux d'abord avec de l'orge puis seuls, apparemment sans problèmes pour les chevaux.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (15 octobre 2013)[5] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (15 octobre 2013) :
 Lecanora aberrata
 Lecanora achariana
 Lecanora achroa
@@ -855,7 +871,7 @@
 Lecanora xanthoplumosa
 Lecanora xanthosora
 Lecanora zosterae
-Selon Index Fungorum                                      (15 octobre 2013)[6] :
+Selon Index Fungorum                                      (15 octobre 2013) :
 Lecanora abietina Motyka 1996
 Lecanora abyssinica (Bagl.) Stizenb. 1890
 Lecanora acarosporoides (Anzi) Hue 1887
@@ -948,7 +964,7 @@
 Lecanora alnicola Motyka 1996
 Lecanora alpestris Ach. 1810
 Lecanora alpestris Sommerf. 1826
-Selon NCBI  (15 octobre 2013)[7] :
+Selon NCBI  (15 octobre 2013) :
 Lecanora achariana
 Lecanora achroa
 Lecanora aitema
@@ -1059,7 +1075,7 @@
 Lecanora valesiaca
 Lecanora varia
 Lecanora wilsonii
-Selon ITIS      (17 sept. 2013)[8] :
+Selon ITIS      (17 sept. 2013) :
 Lecanora acroides
 Lecanora actophila Wedd.
 Lecanora alaskensis
